--- a/outputs/Bettle/gridsearch_results/gridsearch_SVM_results.xlsx
+++ b/outputs/Bettle/gridsearch_results/gridsearch_SVM_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MinMaxScaler</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'classifier__C': 0.1, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': MinMaxScaler()}</t>
+          <t>{'classifier__C': 0.01, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9788854381999832</v>
+        <v>0.9577708763999663</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04222912360003366</v>
+        <v>0.05171990255250274</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -507,12 +507,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MaxAbsScaler</t>
+          <t>MinMaxScaler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'classifier__C': 0.1, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': MaxAbsScaler()}</t>
+          <t>{'classifier__C': 0.1, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': MinMaxScaler()}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,19 +536,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RobustScaler</t>
+          <t>MaxAbsScaler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'classifier__C': 0.01, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': RobustScaler()}</t>
+          <t>{'classifier__C': 0.1, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': MaxAbsScaler()}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8915756484482461</v>
+        <v>0.9788854381999832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07136429845580559</v>
+        <v>0.04222912360003366</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -565,19 +565,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>StandardScaler</t>
+          <t>RobustScaler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'classifier__C': 0.01, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': StandardScaler()}</t>
+          <t>{'classifier__C': 0.01, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': RobustScaler()}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9788854381999832</v>
+        <v>0.8887241058965765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04222912360003366</v>
+        <v>0.1008437583508797</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -594,24 +594,53 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QuantileTransformer</t>
+          <t>StandardScaler</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'classifier__C': 0.01, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': QuantileTransformer()}</t>
+          <t>{'classifier__C': 0.01, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': StandardScaler()}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9338047720482798</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.08949104815488589</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>QuantileTransformer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'classifier__C': 0.1, 'classifier__class_weight': 'balanced', 'classifier__gamma': 'scale', 'classifier__kernel': 'linear', 'scaler': QuantileTransformer()}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
